--- a/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-procedure.xlsx
@@ -512,7 +512,7 @@
     <t>Instantiates external protocol or definition</t>
   </si>
   <si>
-    <t>本Procedrure全体または一部を遵守する、外部で管理されているプロトコル、ガイドライン、オーダーセット、またはその他の定義を指すURL。</t>
+    <t>本Procedure全体または一部を遵守する、外部で管理されているプロトコル、ガイドライン、オーダーセット、またはその他の定義を指すURL。</t>
   </si>
   <si>
     <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
@@ -539,7 +539,7 @@
   </si>
   <si>
     <t>参照は、実際のFHIRリソースへの参照であり、解決可能でなければならない（アクセス制御、一時的な利用不能などを可能にする）。解決には、URLからの検索、またはリソースタイプによって該当する場合は、絶対参照を正規のURLとして扱い、ローカルレジストリ/リポジトリで検索することができる。 
-【JPーCORE】
+【JP-Core仕様】
 Observation_LabResultにならい、任意。</t>
   </si>
   <si>
@@ -563,13 +563,13 @@
     <t>Part of referenced event</t>
   </si>
   <si>
-    <t>A larger event of which this particular procedure is a component or step.【JP仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>A larger event of which this particular procedure is a component or step.【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
   </si>
   <si>
     <t>The MedicationAdministration resource has a partOf reference to Procedure, but this is not a circular reference.   For example, the anesthesia MedicationAdministration is part of the surgical Procedure (MedicationAdministration.partOf = Procedure).  For example, the procedure to insert the IV port for an IV medication administration is part of the medication administration (Procedure.partOf = MedicationAdministration).
 MedicationAdministrationリソースにはProcedureへのpartOf参照があるが、これは循環参照ではない。たとえば、麻酔MedicationAdministrationは外科的処置の一部である（MedicationAdministration.partOf = Procedure）。
 また、たとえば、IV投薬管理用にIVポートを挿入する手順は、投薬管理の一部である（Procedure.partOf = MedicationAdministration）。
-【JP-CORE】
+【JP-Core仕様】
 Observation_LabResultにならい、任意。</t>
   </si>
   <si>
@@ -585,7 +585,7 @@
     <t>preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
   </si>
   <si>
-    <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
+    <t>プロシージャの状態を指定するコードである。一般的には、進行中または完了した状態になる。【JP-Core仕様】http://hl7.org/fhir/us/core/STU3.1/StructureDefinition-us-core-procedure.htmlを参照</t>
   </si>
   <si>
     <t>The "unknown" code is not to be used to convey other statuses.  The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
@@ -1021,7 +1021,7 @@
     <t>When the procedure was performed プロシジャーが実施された時期</t>
   </si>
   <si>
-    <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcdedureをサポートするために期間を許可し、Procdedureの長さを把握することも可能。</t>
+    <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcedureをサポートするために期間を許可し、Procdedureの長さを把握することも可能。</t>
   </si>
   <si>
     <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.
@@ -1136,7 +1136,7 @@
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに当てはまるわけではない。場合によっては、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係や事前・事後の調整を管理するための独自の構造を提供するべきである。
- 【JP-CORE】
+ 【JP-Core仕様】
 当面利用しない。</t>
   </si>
   <si>
@@ -1273,7 +1273,7 @@
     <t>The justification that the procedure was performed プロシジャーが実施された正当性</t>
   </si>
   <si>
-    <t>なぜそのようなPlocedureを行ったのか、その正当性を示す。</t>
+    <t>なぜそのようなProcedureを行ったのか、その正当性を示す。</t>
   </si>
   <si>
     <t>It is possible for a procedure to be a reason (such as C-Section) for another procedure (such as an epidural). Other examples include endoscopy for dilatation and biopsy (a combination of diagnostic and therapeutic use). 
@@ -1466,7 +1466,7 @@
     <t>Kind of change to device</t>
   </si>
   <si>
-    <t>Procedure中にデバイスに起こった変化の種類。【JP仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>Procedure中にデバイスに起こった変化の種類。【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceActionCodes_VS</t>
@@ -1485,7 +1485,7 @@
     <t>Device that was changed</t>
   </si>
   <si>
-    <t>Procedure中に操作（変更）されたデバイス。【JP仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>Procedure中に操作（変更）されたデバイス。【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
   </si>
   <si>
     <t>.participation[typeCode=DEV].role[classCode=SDLOC]</t>
